--- a/biology/Botanique/Anthospermum/Anthospermum.xlsx
+++ b/biology/Botanique/Anthospermum/Anthospermum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthospermum est un genre de plantes à fleurs de la famille des Rubiaceae, comprenant une quarantaine d'espèces réparties en Afrique et sur la péninsule arabique.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est représenté dans une grande partie de l'Afrique, du Cameroun à l'ouest jusqu'à Madagascar à l'est, du Soudan au nord jusqu'à l'Afrique du Sud, ainsi que sur la péninsule arabique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est représenté dans une grande partie de l'Afrique, du Cameroun à l'ouest jusqu'à Madagascar à l'est, du Soudan au nord jusqu'à l'Afrique du Sud, ainsi que sur la péninsule arabique.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est décrit en 1753 par le naturaliste suédois Carl von Linné, dans son ouvrage Species Plantarum, fondateur de la nomenclature botanique moderne. L'espèce type est Anthospermum aethiopicum[2].
-Le genre Ambraria Heist. ex Fabr. est synonyme de Anthospermum[1],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est décrit en 1753 par le naturaliste suédois Carl von Linné, dans son ouvrage Species Plantarum, fondateur de la nomenclature botanique moderne. L'espèce type est Anthospermum aethiopicum.
+Le genre Ambraria Heist. ex Fabr. est synonyme de Anthospermum,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (13 février 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (13 février 2022) :
 Anthospermum aethiopicum L.
 Anthospermum ammannioides S.Moore
 Anthospermum asperuloides Hook.f.
